--- a/biology/Microbiologie/Croissance_bactérienne/Croissance_bactérienne.xlsx
+++ b/biology/Microbiologie/Croissance_bactérienne/Croissance_bactérienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Croissance_bact%C3%A9rienne</t>
+          <t>Croissance_bactérienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de croissance bactérienne recouvre deux aspects : la croissance de la cellule bactérienne (taille, masse, volume), et le phénomène de division cellulaire (population). Pour simplifier, on assimile souvent la croissance à la division cellulaire. Le plus simple est de considérer la croissance comme un ensemble de réactions (du métabolisme) conduisant à la synthèse de biomasse bactérienne. La croissance est alors définie par l'augmentation de biomasse sèche.
 L'étude de la croissance bactérienne consiste en la détermination des paramètres de croissance pour une souche bactérienne donnée.
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Croissance_bact%C3%A9rienne</t>
+          <t>Croissance_bactérienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Conditions nécessaires à la croissance bactérienne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit des conditions nécessaires à la division cellulaire : selon le type de bactéries, un milieu minimum peut être suffisant ou non. Dans ce dernier cas, il faudra utiliser un milieu de culture enrichi, (avec des produits biologiques par exemple) pour créer les conditions de nutrition nécessaires à la croissance.
 À cela s'ajoutent des conditions physico-chimiques qui doivent être suffisantes (température viable, pH viable, composition et proportions des gaz ambiants…).
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Croissance_bact%C3%A9rienne</t>
+          <t>Croissance_bactérienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,29 +567,183 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Méthodes de comptage
-La façon la plus simple d'étudier la croissance bactérienne est de mesurer le nombre de bactéries à intervalles de temps réguliers dans une culture.
-Détection et dénombrement direct microscopique
-L'avantage est que le matériel nécessaire n'est pas très important et qu'on peut faire des colorations différentielles, des observations morphologiques et visualiser les groupements. Ce type de dénombrement permet, grâce à une coloration (au Bleu de Méthylène ou au colorant de Newton), de différencier si on le souhaite les bactéries mortes des bactéries vivantes. L'inconvénient est que la méthode est lente, peu sensible, peu juste (peu exacte) et fatigante pour l'observateur.
+          <t>Méthodes de comptage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La façon la plus simple d'étudier la croissance bactérienne est de mesurer le nombre de bactéries à intervalles de temps réguliers dans une culture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Méthodes d'étude de la croissance</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Méthodes de comptage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Détection et dénombrement direct microscopique</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'avantage est que le matériel nécessaire n'est pas très important et qu'on peut faire des colorations différentielles, des observations morphologiques et visualiser les groupements. Ce type de dénombrement permet, grâce à une coloration (au Bleu de Méthylène ou au colorant de Newton), de différencier si on le souhaite les bactéries mortes des bactéries vivantes. L'inconvénient est que la méthode est lente, peu sensible, peu juste (peu exacte) et fatigante pour l'observateur.
 Cellule de numération (Cellule de Thoma, Cellule de Malassez, Cellule de Pétroff Hauser)
-Méthode de Breed
-Comptage électronique
-Coulter : compteur de particules : on met les microorganismes en suspension dans une solution unique et on fait passer la suspension à travers un orifice à la sortie duquel il y a deux électrodes qui se font face. Il y a une variation de la conductivité quand la cellule passe entre ces deux électrodes. Chaque variation de conductivité est comptée comme une cellule ; toutes les cellules sont ainsi comptées. On ne distingue pas les cellules mortes des vivantes avec cette méthode.
+Méthode de Breed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Méthodes d'étude de la croissance</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Méthodes de comptage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Comptage électronique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Coulter : compteur de particules : on met les microorganismes en suspension dans une solution unique et on fait passer la suspension à travers un orifice à la sortie duquel il y a deux électrodes qui se font face. Il y a une variation de la conductivité quand la cellule passe entre ces deux électrodes. Chaque variation de conductivité est comptée comme une cellule ; toutes les cellules sont ainsi comptées. On ne distingue pas les cellules mortes des vivantes avec cette méthode.
 Cytométrie en flux : même principe que le coulter, à la différence que le comptage est effectué lorsque les cellules passent devant un faisceau laser et qu'il y a réémission de lumière fluorescente ou diffraction créant une diffusion de la lumière reçue. Méthode plutôt utilisée pour faire du tri cellulaire selon plusieurs critères.
 DEFT (Direct Epifluorescent Filter Technique) : Coloration des cellules par un fluorochrome de type acridine orangé (substance oncogène). Ce fluorochrome va se fixer entre les bases azotées des acides nucléiques cellulaires, ce qui permet d'observer sous lumière UV, (ultraviolet), et d'avoir une fluorescence des acides nucléiques.
 Les observations seront : 
 cellule à prédominance mauve en AMN (acide mertolinéique).
 cellule à prédominance verte chargée en ADN (acide désoxyribonucléique) ⇒ Cellule morte.
-cellule à prédominance rouge chargée en ARN (acide ribonucléique).
-Techniques nécessitant une culture
-Techniques : unité formant colonie (UFC) : on considère qu'une seule bactérie va donner une seule colonie sur un milieu de culture, on va donc compter les colonies présentes sur une culture de bactéries connaissant le volume de suspension bactérienne étalée sur le milieu ou présent dans le milieu.
+cellule à prédominance rouge chargée en ARN (acide ribonucléique).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Méthodes d'étude de la croissance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Méthodes de comptage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Techniques nécessitant une culture</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Techniques : unité formant colonie (UFC) : on considère qu'une seule bactérie va donner une seule colonie sur un milieu de culture, on va donc compter les colonies présentes sur une culture de bactéries connaissant le volume de suspension bactérienne étalée sur le milieu ou présent dans le milieu.
 Plate count (culture sur un milieu ordinaire, sans inhibiteurs, en surface, le but étant de compter l'ensemble des bactéries capables de croître à 30 °C et qui ont été prélevées sur une surface ou dans un aliment.).
 Ensemencement en spirale en surface sur gélose en boîte de Petri.
 Technique de Postgate.
 Dénombrement en surface après culture sur membrane filtrante (pour dénombrer les bactéries d'un milieu liquide comme l'eau).
-NPP : nombre le plus probable de cellules viables par tube, s'appuie sur des tables statistiques de tests de croissance.
-Détermination de la biomasse bactérienne
-Détermination de la masse sèche : on récupère la biomasse par centrifugation, ensuite on sèche à 105 °C en présence de sable de Fontainebleau jusqu'à obtenir une masse constante.
+NPP : nombre le plus probable de cellules viables par tube, s'appuie sur des tables statistiques de tests de croissance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Méthodes d'étude de la croissance</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Détermination de la biomasse bactérienne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Détermination de la masse sèche : on récupère la biomasse par centrifugation, ensuite on sèche à 105 °C en présence de sable de Fontainebleau jusqu'à obtenir une masse constante.
 C'est une méthode rigoureuse mais elle a l'inconvénient d'exiger des suspensions bactériennes très denses et un milieu de culture sans particule. Elle ne différencie pas la biomasse morte de la biomasse vivante.
 Turbidimétrie : mesure du trouble d'une suspension bactérienne proportionnel à la biomasse présente dans la suspension. Elle ne distingue pas la biomasse morte de la vivante, mais son intérêt principal est sa rapidité et sa facilité d'application, notamment pour l'analyse dite "en ligne" c'est-à-dire en continu pour mesurer la biomasse dans un fermenteur par exemple.
 Packed Cells Volume (PCL) : méthode ressemblant un peu à la détermination de la masse sèche. On centrifuge le milieu de culture liquide pendant un temps donné, avec une accélération donnée, dans un tube de géométrie donnée, un volume de suspension cellulaire donné, et on obtient alors dans ce cas le volume du culot de centrifugation proportionnel à la biomasse bactérienne présente dans le tube.
@@ -620,31 +788,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Paramètres de la croissance en milieu non renouvelé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le nombre de divisions ou générations : n
 La population bactérienne : N ; on note N0 la population initiale, et Nn la population après n divisions
@@ -652,31 +822,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Expression mathématique de la croissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>On définit le taux de croissance horaire grâce à la formule: 
         R
@@ -710,31 +882,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Expression graphique de la croissance en milieu non renouvelé</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques des différentes phases de croissance peuvent être graphiquement représentées par la courbe lnN=f(t).
 La phase de latence (A)
@@ -755,31 +929,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Phénomène de diauxie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Exemple: E.coli, cultivé sur milieu contenant deux sucres comme le glucose et le lactose(kligler)
 utilise en priorité le glucose car il est métabolisé par des enzymes constitutives;
@@ -790,31 +966,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Rendement de la croissance</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La masse microbienne produite à partir d'un nutriment s'exprime quantitativement comme le rendement de croissance, noté Y :
         Y
@@ -890,31 +1068,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Croissance_bactérienne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croissance_bact%C3%A9rienne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Influence de l'environnement sur la croissance</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pH affecte considérablement la croissance bactérienne.
 Chaque espèce se développe dans une gamme définie de pH et possède un pH optimum de croissance
